--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2290.478288439639</v>
+        <v>2394.537789630876</v>
       </c>
       <c r="AB2" t="n">
-        <v>3133.933443013715</v>
+        <v>3276.312243324765</v>
       </c>
       <c r="AC2" t="n">
-        <v>2834.83523371558</v>
+        <v>2963.62560115484</v>
       </c>
       <c r="AD2" t="n">
-        <v>2290478.288439639</v>
+        <v>2394537.789630876</v>
       </c>
       <c r="AE2" t="n">
-        <v>3133933.443013715</v>
+        <v>3276312.243324765</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.080274185677441e-06</v>
+        <v>1.826257109988935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.75694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2834835.23371558</v>
+        <v>2963625.60115484</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>739.3870365377149</v>
+        <v>791.4594575606189</v>
       </c>
       <c r="AB3" t="n">
-        <v>1011.661962844789</v>
+        <v>1082.909746561408</v>
       </c>
       <c r="AC3" t="n">
-        <v>915.1103649873641</v>
+        <v>979.5583602229618</v>
       </c>
       <c r="AD3" t="n">
-        <v>739387.036537715</v>
+        <v>791459.457560619</v>
       </c>
       <c r="AE3" t="n">
-        <v>1011661.962844789</v>
+        <v>1082909.746561408</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.047342055610696e-06</v>
+        <v>3.461133326344998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.897222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>915110.364987364</v>
+        <v>979558.3602229619</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>539.6534938338032</v>
+        <v>581.2261793061059</v>
       </c>
       <c r="AB4" t="n">
-        <v>738.377718095286</v>
+        <v>795.2593004159324</v>
       </c>
       <c r="AC4" t="n">
-        <v>667.9079849999072</v>
+        <v>719.3608689376733</v>
       </c>
       <c r="AD4" t="n">
-        <v>539653.4938338032</v>
+        <v>581226.1793061059</v>
       </c>
       <c r="AE4" t="n">
-        <v>738377.7180952861</v>
+        <v>795259.3004159324</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.406071862846459e-06</v>
+        <v>4.067583864287306e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.420833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>667907.9849999072</v>
+        <v>719360.8689376733</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>526.9718318104505</v>
+        <v>568.544517282753</v>
       </c>
       <c r="AB5" t="n">
-        <v>721.0261086394917</v>
+        <v>777.9076909601382</v>
       </c>
       <c r="AC5" t="n">
-        <v>652.2123887974373</v>
+        <v>703.6652727352034</v>
       </c>
       <c r="AD5" t="n">
-        <v>526971.8318104504</v>
+        <v>568544.517282753</v>
       </c>
       <c r="AE5" t="n">
-        <v>721026.1086394917</v>
+        <v>777907.6909601382</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.437145245905108e-06</v>
+        <v>4.120114960091174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.31388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>652212.3887974373</v>
+        <v>703665.2727352034</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1357.907443656839</v>
+        <v>1438.546645553149</v>
       </c>
       <c r="AB2" t="n">
-        <v>1857.948871059702</v>
+        <v>1968.282984644741</v>
       </c>
       <c r="AC2" t="n">
-        <v>1680.628838453382</v>
+        <v>1780.432819092766</v>
       </c>
       <c r="AD2" t="n">
-        <v>1357907.443656839</v>
+        <v>1438546.645553149</v>
       </c>
       <c r="AE2" t="n">
-        <v>1857948.871059702</v>
+        <v>1968282.984644741</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434149038700109e-06</v>
+        <v>2.483646408611374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.61527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1680628.838453382</v>
+        <v>1780432.819092766</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>548.195560773274</v>
+        <v>598.5630591380032</v>
       </c>
       <c r="AB3" t="n">
-        <v>750.0653509312666</v>
+        <v>818.9803842510919</v>
       </c>
       <c r="AC3" t="n">
-        <v>678.4801665617176</v>
+        <v>740.8180458243553</v>
       </c>
       <c r="AD3" t="n">
-        <v>548195.560773274</v>
+        <v>598563.0591380032</v>
       </c>
       <c r="AE3" t="n">
-        <v>750065.3509312666</v>
+        <v>818980.3842510919</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.342961572747469e-06</v>
+        <v>4.057519782562514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.945833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>678480.1665617176</v>
+        <v>740818.0458243553</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>499.8977896269452</v>
+        <v>540.3454018569572</v>
       </c>
       <c r="AB4" t="n">
-        <v>683.9822097015769</v>
+        <v>739.324417177393</v>
       </c>
       <c r="AC4" t="n">
-        <v>618.7039075827183</v>
+        <v>668.7643324503184</v>
       </c>
       <c r="AD4" t="n">
-        <v>499897.7896269452</v>
+        <v>540345.4018569572</v>
       </c>
       <c r="AE4" t="n">
-        <v>683982.209701577</v>
+        <v>739324.417177393</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.458110022345299e-06</v>
+        <v>4.256932832101658e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.526388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>618703.9075827183</v>
+        <v>668764.3324503184</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.6933678247215</v>
+        <v>534.1849445422778</v>
       </c>
       <c r="AB2" t="n">
-        <v>668.651825487571</v>
+        <v>730.895407699253</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.8366337217677</v>
+        <v>661.139775806583</v>
       </c>
       <c r="AD2" t="n">
-        <v>488693.3678247215</v>
+        <v>534184.9445422777</v>
       </c>
       <c r="AE2" t="n">
-        <v>668651.8254875711</v>
+        <v>730895.4076992531</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.336207657984981e-06</v>
+        <v>4.420607616778307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.01111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>604836.6337217677</v>
+        <v>661139.775806583</v>
       </c>
     </row>
     <row r="3">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>492.2722458621345</v>
+        <v>537.7638225796907</v>
       </c>
       <c r="AB3" t="n">
-        <v>673.548604307315</v>
+        <v>735.7921865189971</v>
       </c>
       <c r="AC3" t="n">
-        <v>609.2660708436276</v>
+        <v>665.5692129284431</v>
       </c>
       <c r="AD3" t="n">
-        <v>492272.2458621345</v>
+        <v>537763.8225796907</v>
       </c>
       <c r="AE3" t="n">
-        <v>673548.6043073151</v>
+        <v>735792.1865189972</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.335870858783945e-06</v>
+        <v>4.419970320214221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.0125</v>
       </c>
       <c r="AH3" t="n">
-        <v>609266.0708436277</v>
+        <v>665569.2129284431</v>
       </c>
     </row>
   </sheetData>
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>614.1967549285025</v>
+        <v>661.5946574773441</v>
       </c>
       <c r="AB2" t="n">
-        <v>840.3710965416338</v>
+        <v>905.2229978568407</v>
       </c>
       <c r="AC2" t="n">
-        <v>760.1672585559414</v>
+        <v>818.8297854298401</v>
       </c>
       <c r="AD2" t="n">
-        <v>614196.7549285025</v>
+        <v>661594.657477344</v>
       </c>
       <c r="AE2" t="n">
-        <v>840371.0965416338</v>
+        <v>905222.9978568407</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.139925226048541e-06</v>
+        <v>3.898479024070101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.45694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>760167.2585559414</v>
+        <v>818829.7854298401</v>
       </c>
     </row>
     <row r="3">
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.895559006506</v>
+        <v>519.8821716309469</v>
       </c>
       <c r="AB3" t="n">
-        <v>659.3507635643292</v>
+        <v>711.3257228081626</v>
       </c>
       <c r="AC3" t="n">
-        <v>596.4232520943576</v>
+        <v>643.437794175273</v>
       </c>
       <c r="AD3" t="n">
-        <v>481895.559006506</v>
+        <v>519882.1716309469</v>
       </c>
       <c r="AE3" t="n">
-        <v>659350.7635643292</v>
+        <v>711325.7228081626</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.429909823420172e-06</v>
+        <v>4.426767983140053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.208333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>596423.2520943576</v>
+        <v>643437.794175273</v>
       </c>
     </row>
   </sheetData>
@@ -3957,28 +3957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.4958198288192</v>
+        <v>557.5091591727069</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.5876345265347</v>
+        <v>762.808627148333</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.5336567752597</v>
+        <v>690.0072423819277</v>
       </c>
       <c r="AD2" t="n">
-        <v>513495.8198288193</v>
+        <v>557509.1591727069</v>
       </c>
       <c r="AE2" t="n">
-        <v>702587.6345265347</v>
+        <v>762808.627148333</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.191636245511075e-06</v>
+        <v>4.294900894978443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>635533.6567752598</v>
+        <v>690007.2423819277</v>
       </c>
     </row>
   </sheetData>
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1538.383262383788</v>
+        <v>1619.618322103325</v>
       </c>
       <c r="AB2" t="n">
-        <v>2104.883848273104</v>
+        <v>2216.033240819274</v>
       </c>
       <c r="AC2" t="n">
-        <v>1903.996688016954</v>
+        <v>2004.53813853767</v>
       </c>
       <c r="AD2" t="n">
-        <v>1538383.262383788</v>
+        <v>1619618.322103325</v>
       </c>
       <c r="AE2" t="n">
-        <v>2104883.848273104</v>
+        <v>2216033.240819274</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.341849960433919e-06</v>
+        <v>2.308627639928463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.48055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>1903996.688016954</v>
+        <v>2004538.13853767</v>
       </c>
     </row>
     <row r="3">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>600.2652443002041</v>
+        <v>640.9681597688194</v>
       </c>
       <c r="AB3" t="n">
-        <v>821.3093890851245</v>
+        <v>877.0009137151814</v>
       </c>
       <c r="AC3" t="n">
-        <v>742.924773705807</v>
+        <v>793.301177388717</v>
       </c>
       <c r="AD3" t="n">
-        <v>600265.2443002041</v>
+        <v>640968.1597688195</v>
       </c>
       <c r="AE3" t="n">
-        <v>821309.3890851245</v>
+        <v>877000.9137151814</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266727374090111e-06</v>
+        <v>3.899861849170283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.16388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>742924.7737058069</v>
+        <v>793301.177388717</v>
       </c>
     </row>
     <row r="4">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>505.3450232755612</v>
+        <v>545.9625978896049</v>
       </c>
       <c r="AB4" t="n">
-        <v>691.4353550946015</v>
+        <v>747.0101126024609</v>
       </c>
       <c r="AC4" t="n">
-        <v>625.4457352399877</v>
+        <v>675.7165158909589</v>
       </c>
       <c r="AD4" t="n">
-        <v>505345.0232755612</v>
+        <v>545962.597889605</v>
       </c>
       <c r="AE4" t="n">
-        <v>691435.3550946015</v>
+        <v>747010.1126024609</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.456518680353e-06</v>
+        <v>4.226394224902474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.455555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>625445.7352399877</v>
+        <v>675716.515890959</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.6246461891201</v>
+        <v>594.2442477406272</v>
       </c>
       <c r="AB2" t="n">
-        <v>742.4429798258213</v>
+        <v>813.0711959646902</v>
       </c>
       <c r="AC2" t="n">
-        <v>671.5852638565108</v>
+        <v>735.47282217441</v>
       </c>
       <c r="AD2" t="n">
-        <v>542624.6461891201</v>
+        <v>594244.2477406272</v>
       </c>
       <c r="AE2" t="n">
-        <v>742442.9798258214</v>
+        <v>813071.1959646902</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.06568396139735e-06</v>
+        <v>4.140994788004056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>671585.2638565107</v>
+        <v>735472.82217441</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>929.4869768337878</v>
+        <v>988.2872359536569</v>
       </c>
       <c r="AB2" t="n">
-        <v>1271.765087775344</v>
+        <v>1352.2181963875</v>
       </c>
       <c r="AC2" t="n">
-        <v>1150.389612731575</v>
+        <v>1223.164389574434</v>
       </c>
       <c r="AD2" t="n">
-        <v>929486.9768337879</v>
+        <v>988287.235953657</v>
       </c>
       <c r="AE2" t="n">
-        <v>1271765.087775344</v>
+        <v>1352218.1963875</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.750035737055992e-06</v>
+        <v>3.099443330056448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1150389.612731576</v>
+        <v>1223164.389574434</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>482.665390254113</v>
+        <v>531.6513081211161</v>
       </c>
       <c r="AB3" t="n">
-        <v>660.4040806398629</v>
+        <v>727.4287745716695</v>
       </c>
       <c r="AC3" t="n">
-        <v>597.376042066542</v>
+        <v>658.0039932792459</v>
       </c>
       <c r="AD3" t="n">
-        <v>482665.3902541131</v>
+        <v>531651.3081211161</v>
       </c>
       <c r="AE3" t="n">
-        <v>660404.0806398628</v>
+        <v>727428.7745716695</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.458912940542289e-06</v>
+        <v>4.354917531898059e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.781944444444443</v>
       </c>
       <c r="AH3" t="n">
-        <v>597376.0420665421</v>
+        <v>658003.9932792459</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>484.7048759035573</v>
+        <v>533.6907937705604</v>
       </c>
       <c r="AB4" t="n">
-        <v>663.1945948811891</v>
+        <v>730.2192888129958</v>
       </c>
       <c r="AC4" t="n">
-        <v>599.9002335451876</v>
+        <v>660.5281847578915</v>
       </c>
       <c r="AD4" t="n">
-        <v>484704.8759035573</v>
+        <v>533690.7937705604</v>
       </c>
       <c r="AE4" t="n">
-        <v>663194.5948811892</v>
+        <v>730219.2888129959</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.460623326424796e-06</v>
+        <v>4.357946752389453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.776388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>599900.2335451876</v>
+        <v>660528.1847578915</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1197.264005857725</v>
+        <v>1267.279347714504</v>
       </c>
       <c r="AB2" t="n">
-        <v>1638.149432374661</v>
+        <v>1733.947511961988</v>
       </c>
       <c r="AC2" t="n">
-        <v>1481.80674970599</v>
+        <v>1568.461995030953</v>
       </c>
       <c r="AD2" t="n">
-        <v>1197264.005857725</v>
+        <v>1267279.347714504</v>
       </c>
       <c r="AE2" t="n">
-        <v>1638149.432374661</v>
+        <v>1733947.511961988</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531715389005731e-06</v>
+        <v>2.671177890256924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.81388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1481806.74970599</v>
+        <v>1568461.995030953</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>514.0436183946559</v>
+        <v>563.9692360092125</v>
       </c>
       <c r="AB3" t="n">
-        <v>703.3371566914795</v>
+        <v>771.6475892745159</v>
       </c>
       <c r="AC3" t="n">
-        <v>636.2116455967432</v>
+        <v>698.0026263683488</v>
       </c>
       <c r="AD3" t="n">
-        <v>514043.6183946559</v>
+        <v>563969.2360092126</v>
       </c>
       <c r="AE3" t="n">
-        <v>703337.1566914795</v>
+        <v>771647.5892745159</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.408787747719277e-06</v>
+        <v>4.20071549859282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.784722222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>636211.6455967432</v>
+        <v>698002.6263683488</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>494.3715482430466</v>
+        <v>544.2971658576032</v>
       </c>
       <c r="AB4" t="n">
-        <v>676.4209624395638</v>
+        <v>744.7313950226002</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.8642951471146</v>
+        <v>673.6552759187201</v>
       </c>
       <c r="AD4" t="n">
-        <v>494371.5482430466</v>
+        <v>544297.1658576032</v>
       </c>
       <c r="AE4" t="n">
-        <v>676420.9624395638</v>
+        <v>744731.3950226002</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.461195753867872e-06</v>
+        <v>4.29211048509057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.597222222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>611864.2951471145</v>
+        <v>673655.2759187202</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000.92922490055</v>
+        <v>2093.966052815194</v>
       </c>
       <c r="AB2" t="n">
-        <v>2737.759640276214</v>
+        <v>2865.056732724197</v>
       </c>
       <c r="AC2" t="n">
-        <v>2476.47170267804</v>
+        <v>2591.619739285379</v>
       </c>
       <c r="AD2" t="n">
-        <v>2000929.22490055</v>
+        <v>2093966.052815194</v>
       </c>
       <c r="AE2" t="n">
-        <v>2737759.640276214</v>
+        <v>2865056.732724197</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.163464607123942e-06</v>
+        <v>1.977812721889721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.55416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2476471.70267804</v>
+        <v>2591619.739285379</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>692.0965953327311</v>
+        <v>743.7837219519778</v>
       </c>
       <c r="AB3" t="n">
-        <v>946.9570948811081</v>
+        <v>1017.677701796654</v>
       </c>
       <c r="AC3" t="n">
-        <v>856.5808388082844</v>
+        <v>920.5519702568062</v>
       </c>
       <c r="AD3" t="n">
-        <v>692096.5953327311</v>
+        <v>743783.7219519778</v>
       </c>
       <c r="AE3" t="n">
-        <v>946957.0948811081</v>
+        <v>1017677.701796654</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.116058606738312e-06</v>
+        <v>3.597159386753424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.651388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>856580.8388082844</v>
+        <v>920551.9702568061</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.7113647940694</v>
+        <v>562.9758147434462</v>
       </c>
       <c r="AB4" t="n">
-        <v>713.8285055922537</v>
+        <v>770.2883464720412</v>
       </c>
       <c r="AC4" t="n">
-        <v>645.701714883128</v>
+        <v>696.7731077912331</v>
       </c>
       <c r="AD4" t="n">
-        <v>521711.3647940693</v>
+        <v>562975.8147434462</v>
       </c>
       <c r="AE4" t="n">
-        <v>713828.5055922536</v>
+        <v>770288.3464720412</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.436481935722522e-06</v>
+        <v>4.141857809528664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.381944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>645701.7148831281</v>
+        <v>696773.1077912331</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>519.8739542443392</v>
+        <v>561.138404193716</v>
       </c>
       <c r="AB5" t="n">
-        <v>711.3144794172804</v>
+        <v>767.774320297068</v>
       </c>
       <c r="AC5" t="n">
-        <v>643.4276238378362</v>
+        <v>694.4990167459414</v>
       </c>
       <c r="AD5" t="n">
-        <v>519873.9542443391</v>
+        <v>561138.404193716</v>
       </c>
       <c r="AE5" t="n">
-        <v>711314.4794172804</v>
+        <v>767774.320297068</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.443834467365115e-06</v>
+        <v>4.1543566260219e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.356944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>643427.6238378362</v>
+        <v>694499.0167459414</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.5901151082281</v>
+        <v>759.6309364225492</v>
       </c>
       <c r="AB2" t="n">
-        <v>973.6289886313403</v>
+        <v>1039.36055976505</v>
       </c>
       <c r="AC2" t="n">
-        <v>880.7072044532325</v>
+        <v>940.1654466927806</v>
       </c>
       <c r="AD2" t="n">
-        <v>711590.1151082282</v>
+        <v>759630.9364225492</v>
       </c>
       <c r="AE2" t="n">
-        <v>973628.9886313403</v>
+        <v>1039360.55976505</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.002260056481875e-06</v>
+        <v>3.610548696541391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.03611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>880707.2044532325</v>
+        <v>940165.4466927806</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.2823306759931</v>
+        <v>522.7150056291601</v>
       </c>
       <c r="AB3" t="n">
-        <v>662.6164498594559</v>
+        <v>715.2017312603334</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.3772658728969</v>
+        <v>646.9438818207808</v>
       </c>
       <c r="AD3" t="n">
-        <v>484282.3306759931</v>
+        <v>522715.0056291601</v>
       </c>
       <c r="AE3" t="n">
-        <v>662616.4498594559</v>
+        <v>715201.7312603334</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.444519945010368e-06</v>
+        <v>4.408047931912842e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.038888888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>599377.265872897</v>
+        <v>646943.8818207808</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>486.9126849887069</v>
+        <v>533.1712874860881</v>
       </c>
       <c r="AB2" t="n">
-        <v>666.2154166731534</v>
+        <v>729.5084773955812</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.6327523450768</v>
+        <v>659.8852121845248</v>
       </c>
       <c r="AD2" t="n">
-        <v>486912.6849887069</v>
+        <v>533171.2874860881</v>
       </c>
       <c r="AE2" t="n">
-        <v>666215.4166731534</v>
+        <v>729508.4773955812</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.352989840354872e-06</v>
+        <v>4.389926925987393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.781944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>602632.7523450769</v>
+        <v>659885.2121845247</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>479.9401277940242</v>
+        <v>526.1987302914055</v>
       </c>
       <c r="AB3" t="n">
-        <v>656.675256311875</v>
+        <v>719.9683170343028</v>
       </c>
       <c r="AC3" t="n">
-        <v>594.0030914989798</v>
+        <v>651.2555513384275</v>
       </c>
       <c r="AD3" t="n">
-        <v>479940.1277940242</v>
+        <v>526198.7302914055</v>
       </c>
       <c r="AE3" t="n">
-        <v>656675.2563118751</v>
+        <v>719968.3170343027</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.380829990589369e-06</v>
+        <v>4.441867747423121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>594003.0914989797</v>
+        <v>651255.5513384275</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>493.6605308376019</v>
+        <v>538.4093927240449</v>
       </c>
       <c r="AB2" t="n">
-        <v>675.4481170575602</v>
+        <v>736.6754840710473</v>
       </c>
       <c r="AC2" t="n">
-        <v>610.9842967629722</v>
+        <v>666.3682098018413</v>
       </c>
       <c r="AD2" t="n">
-        <v>493660.5308376019</v>
+        <v>538409.3927240449</v>
       </c>
       <c r="AE2" t="n">
-        <v>675448.1170575602</v>
+        <v>736675.4840710473</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.277206033541809e-06</v>
+        <v>4.379151649516227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.45555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>610984.2967629723</v>
+        <v>666368.2098018413</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>593.5263957048685</v>
+        <v>652.340862955587</v>
       </c>
       <c r="AB2" t="n">
-        <v>812.0889991399687</v>
+        <v>892.5615479435712</v>
       </c>
       <c r="AC2" t="n">
-        <v>734.5843648361181</v>
+        <v>807.3767265258363</v>
       </c>
       <c r="AD2" t="n">
-        <v>593526.3957048685</v>
+        <v>652340.862955587</v>
       </c>
       <c r="AE2" t="n">
-        <v>812088.9991399687</v>
+        <v>892561.5479435712</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.86438102845858e-06</v>
+        <v>3.84547104406024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.70555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>734584.3648361181</v>
+        <v>807376.7265258363</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1058.378650890005</v>
+        <v>1117.84009621968</v>
       </c>
       <c r="AB2" t="n">
-        <v>1448.1203625184</v>
+        <v>1529.47813527229</v>
       </c>
       <c r="AC2" t="n">
-        <v>1309.913787569337</v>
+        <v>1383.506888677947</v>
       </c>
       <c r="AD2" t="n">
-        <v>1058378.650890005</v>
+        <v>1117840.09621968</v>
       </c>
       <c r="AE2" t="n">
-        <v>1448120.3625184</v>
+        <v>1529478.13527229</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.639635894883975e-06</v>
+        <v>2.880775587322089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.03333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1309913.787569337</v>
+        <v>1383506.888677947</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>492.0113792430013</v>
+        <v>541.4771682393665</v>
       </c>
       <c r="AB3" t="n">
-        <v>673.1916750903941</v>
+        <v>740.8729498718142</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.9432064502163</v>
+        <v>670.1650753577635</v>
       </c>
       <c r="AD3" t="n">
-        <v>492011.3792430013</v>
+        <v>541477.1682393665</v>
       </c>
       <c r="AE3" t="n">
-        <v>673191.6750903941</v>
+        <v>740872.9498718142</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.448529091149464e-06</v>
+        <v>4.301969024123159e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.72777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>608943.2064502162</v>
+        <v>670165.0753577634</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>490.3878490112961</v>
+        <v>539.8536380076613</v>
       </c>
       <c r="AB4" t="n">
-        <v>670.9702894022762</v>
+        <v>738.6515641836965</v>
       </c>
       <c r="AC4" t="n">
-        <v>606.933826694438</v>
+        <v>668.1556956019851</v>
       </c>
       <c r="AD4" t="n">
-        <v>490387.8490112961</v>
+        <v>539853.6380076613</v>
       </c>
       <c r="AE4" t="n">
-        <v>670970.2894022762</v>
+        <v>738651.5641836964</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.45791514497716e-06</v>
+        <v>4.318459950439473e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.694444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>606933.826694438</v>
+        <v>668155.6956019851</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1754.059188726061</v>
+        <v>1836.037191559365</v>
       </c>
       <c r="AB2" t="n">
-        <v>2399.981165644941</v>
+        <v>2512.147085735704</v>
       </c>
       <c r="AC2" t="n">
-        <v>2170.930331590509</v>
+        <v>2272.391293693667</v>
       </c>
       <c r="AD2" t="n">
-        <v>1754059.188726061</v>
+        <v>1836037.191559365</v>
       </c>
       <c r="AE2" t="n">
-        <v>2399981.16564494</v>
+        <v>2512147.085735704</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.250244453296612e-06</v>
+        <v>2.137778684900343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.47083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2170930.331590509</v>
+        <v>2272391.293693667</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>646.0873218217313</v>
+        <v>697.206263483217</v>
       </c>
       <c r="AB3" t="n">
-        <v>884.0051770774661</v>
+        <v>953.9483682672521</v>
       </c>
       <c r="AC3" t="n">
-        <v>799.6369636862505</v>
+        <v>862.9048748747687</v>
       </c>
       <c r="AD3" t="n">
-        <v>646087.3218217313</v>
+        <v>697206.263483217</v>
       </c>
       <c r="AE3" t="n">
-        <v>884005.1770774662</v>
+        <v>953948.3682672521</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.188372614587843e-06</v>
+        <v>3.741873293458747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.411111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>799636.9636862505</v>
+        <v>862904.8748747687</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>513.0862598100592</v>
+        <v>554.0326355537009</v>
       </c>
       <c r="AB4" t="n">
-        <v>702.0272564403544</v>
+        <v>758.0518941594114</v>
       </c>
       <c r="AC4" t="n">
-        <v>635.026760387129</v>
+        <v>685.7044853133522</v>
       </c>
       <c r="AD4" t="n">
-        <v>513086.2598100593</v>
+        <v>554032.6355537008</v>
       </c>
       <c r="AE4" t="n">
-        <v>702027.2564403544</v>
+        <v>758051.8941594114</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.446072431930053e-06</v>
+        <v>4.182511262428955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.419444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>635026.760387129</v>
+        <v>685704.4853133522</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>514.7297387247736</v>
+        <v>555.6761144684152</v>
       </c>
       <c r="AB5" t="n">
-        <v>704.2759367966391</v>
+        <v>760.3005745156962</v>
       </c>
       <c r="AC5" t="n">
-        <v>637.0608298462525</v>
+        <v>687.7385547724757</v>
       </c>
       <c r="AD5" t="n">
-        <v>514729.7387247736</v>
+        <v>555676.1144684153</v>
       </c>
       <c r="AE5" t="n">
-        <v>704275.9367966391</v>
+        <v>760300.5745156963</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.447555169659294e-06</v>
+        <v>4.185046578706114e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.413888888888888</v>
       </c>
       <c r="AH5" t="n">
-        <v>637060.8298462526</v>
+        <v>687738.5547724757</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>715.8569866387475</v>
+        <v>788.9277506388806</v>
       </c>
       <c r="AB2" t="n">
-        <v>979.4671105004835</v>
+        <v>1079.445753460059</v>
       </c>
       <c r="AC2" t="n">
-        <v>885.9881441650402</v>
+        <v>976.4249657614606</v>
       </c>
       <c r="AD2" t="n">
-        <v>715856.9866387475</v>
+        <v>788927.7506388807</v>
       </c>
       <c r="AE2" t="n">
-        <v>979467.1105004835</v>
+        <v>1079445.753460059</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.536187852671345e-06</v>
+        <v>3.292758121746579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.225</v>
       </c>
       <c r="AH2" t="n">
-        <v>885988.1441650402</v>
+        <v>976424.9657614606</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>528.1667532756613</v>
+        <v>584.2655354169945</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.6610529044082</v>
+        <v>799.4178815337783</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.6912962763686</v>
+        <v>723.1225609102372</v>
       </c>
       <c r="AD2" t="n">
-        <v>528166.7532756614</v>
+        <v>584265.5354169945</v>
       </c>
       <c r="AE2" t="n">
-        <v>722661.0529044082</v>
+        <v>799417.8815337783</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.280644233932084e-06</v>
+        <v>4.201933137593871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.944444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>653691.2962763686</v>
+        <v>723122.5609102373</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>480.2367357019561</v>
+        <v>526.9573633767609</v>
       </c>
       <c r="AB3" t="n">
-        <v>657.0810883369247</v>
+        <v>721.0063122902156</v>
       </c>
       <c r="AC3" t="n">
-        <v>594.3701914851474</v>
+        <v>652.1944817839517</v>
       </c>
       <c r="AD3" t="n">
-        <v>480236.7357019561</v>
+        <v>526957.3633767609</v>
       </c>
       <c r="AE3" t="n">
-        <v>657081.0883369247</v>
+        <v>721006.3122902156</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.409487732469418e-06</v>
+        <v>4.439318591235684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.413888888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>594370.1914851475</v>
+        <v>652194.4817839516</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>810.6949656215103</v>
+        <v>868.9775510669244</v>
       </c>
       <c r="AB2" t="n">
-        <v>1109.228617301043</v>
+        <v>1188.973421953659</v>
       </c>
       <c r="AC2" t="n">
-        <v>1003.365394877973</v>
+        <v>1075.49946729708</v>
       </c>
       <c r="AD2" t="n">
-        <v>810694.9656215103</v>
+        <v>868977.5510669245</v>
       </c>
       <c r="AE2" t="n">
-        <v>1109228.617301043</v>
+        <v>1188973.421953659</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.871106778201217e-06</v>
+        <v>3.342595709101029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.67083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1003365.394877973</v>
+        <v>1075499.46729708</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.8268377548891</v>
+        <v>527.3103181048294</v>
       </c>
       <c r="AB3" t="n">
-        <v>655.1520037654402</v>
+        <v>721.4892405204225</v>
       </c>
       <c r="AC3" t="n">
-        <v>592.6252160376782</v>
+        <v>652.6313200216616</v>
       </c>
       <c r="AD3" t="n">
-        <v>478826.8377548891</v>
+        <v>527310.3181048294</v>
       </c>
       <c r="AE3" t="n">
-        <v>655152.0037654402</v>
+        <v>721489.2405204226</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.4525161442871e-06</v>
+        <v>4.381241111357614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.904166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>592625.2160376782</v>
+        <v>652631.3200216616</v>
       </c>
     </row>
   </sheetData>
